--- a/IO_Prelim/RunControl_Prelim.xlsx
+++ b/IO_Prelim/RunControl_Prelim.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="203">
   <si>
     <t>Sheet #</t>
   </si>
@@ -526,9 +526,6 @@
     <t>R3F1</t>
   </si>
   <si>
-    <t>R5F1</t>
-  </si>
-  <si>
     <t>R6F1</t>
   </si>
   <si>
@@ -562,15 +559,9 @@
     <t>R3F3</t>
   </si>
   <si>
-    <t>R5F3</t>
-  </si>
-  <si>
     <t>R6F3</t>
   </si>
   <si>
-    <t>R5F2</t>
-  </si>
-  <si>
     <t>R6F2</t>
   </si>
   <si>
@@ -644,6 +635,9 @@
   </si>
   <si>
     <t>Fixed discount rate 7.5%, stochastic investment return arithmetic mean 7.5%, sd 12%; Smoothed + Full ARC cd amort</t>
+  </si>
+  <si>
+    <t>R3F1gm</t>
   </si>
 </sst>
 </file>
@@ -1351,13 +1345,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AF6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA26" sqref="AA26"/>
+      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,13 +1449,13 @@
         <v>40</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK2" s="6"/>
       <c r="AL2" s="4" t="s">
@@ -1509,7 +1503,7 @@
         <v>53</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK3" s="4"/>
       <c r="AN3" s="4" t="s">
@@ -1697,16 +1691,16 @@
         <v>159</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ5" s="9" t="s">
         <v>106</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL5" s="9" t="s">
         <v>102</v>
@@ -1732,11 +1726,10 @@
         <v>160</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1754,7 +1747,7 @@
         <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -1805,10 +1798,10 @@
         <v>112</v>
       </c>
       <c r="Z6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB6">
         <v>30</v>
@@ -1835,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK6" s="19">
         <v>0.85</v>
@@ -1864,11 +1857,10 @@
         <v>161</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C7" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>109</v>
@@ -1886,7 +1878,7 @@
         <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -1937,10 +1929,10 @@
         <v>112</v>
       </c>
       <c r="Z7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB7">
         <v>30</v>
@@ -1967,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK7" s="19">
         <v>0.85</v>
@@ -1996,11 +1988,10 @@
         <v>164</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -2018,7 +2009,7 @@
         <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -2069,10 +2060,10 @@
         <v>112</v>
       </c>
       <c r="Z8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB8">
         <v>30</v>
@@ -2099,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK8" s="19">
         <v>0.85</v>
@@ -2125,6 +2116,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B9" s="22"/>
+      <c r="C9" s="11"/>
       <c r="L9" s="28"/>
       <c r="AF9" s="26"/>
       <c r="AH9" s="21"/>
@@ -2137,11 +2129,10 @@
         <v>162</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
@@ -2159,7 +2150,7 @@
         <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
@@ -2210,10 +2201,10 @@
         <v>112</v>
       </c>
       <c r="Z10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB10">
         <v>20</v>
@@ -2240,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK10" s="19">
         <v>0.85</v>
@@ -2266,14 +2257,13 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -2291,7 +2281,7 @@
         <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
@@ -2342,10 +2332,10 @@
         <v>112</v>
       </c>
       <c r="Z11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB11">
         <v>20</v>
@@ -2372,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK11" s="19">
         <v>0.85</v>
@@ -2398,14 +2388,13 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -2423,7 +2412,7 @@
         <v>148</v>
       </c>
       <c r="I12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J12" s="12">
         <v>0</v>
@@ -2474,10 +2463,10 @@
         <v>112</v>
       </c>
       <c r="Z12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA12" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB12">
         <v>20</v>
@@ -2504,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK12" s="19">
         <v>0.85</v>
@@ -2527,17 +2516,19 @@
       <c r="AQ12">
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>109</v>
@@ -2555,7 +2546,7 @@
         <v>148</v>
       </c>
       <c r="I14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J14" s="12">
         <v>0</v>
@@ -2606,10 +2597,10 @@
         <v>112</v>
       </c>
       <c r="Z14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA14" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB14">
         <v>30</v>
@@ -2636,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK14" s="19">
         <v>0.85</v>
@@ -2662,14 +2653,13 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C15" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>109</v>
@@ -2687,7 +2677,7 @@
         <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
@@ -2738,10 +2728,10 @@
         <v>112</v>
       </c>
       <c r="Z15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA15" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB15">
         <v>30</v>
@@ -2768,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK15" s="19">
         <v>0.85</v>
@@ -2794,14 +2784,13 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -2819,7 +2808,7 @@
         <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J16" s="12">
         <v>0</v>
@@ -2870,10 +2859,10 @@
         <v>112</v>
       </c>
       <c r="Z16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA16" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB16">
         <v>30</v>
@@ -2900,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK16" s="19">
         <v>0.85</v>
@@ -2926,6 +2915,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
+      <c r="C17" s="11"/>
       <c r="L17" s="28"/>
       <c r="AD17" s="14"/>
       <c r="AF17" s="26"/>
@@ -2936,529 +2926,660 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>65</v>
+      </c>
+      <c r="O18">
+        <v>65</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="T18" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U18" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="W18" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB18">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="AG18" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK18" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="AL18">
+        <v>200</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN18">
+        <v>5</v>
+      </c>
+      <c r="AO18">
+        <v>200</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>65</v>
+      </c>
+      <c r="O19">
+        <v>65</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U19" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V19" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB19">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="AG19" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK19" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="AL19">
+        <v>200</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN19">
+        <v>5</v>
+      </c>
+      <c r="AO19">
+        <v>200</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>65</v>
+      </c>
+      <c r="O20">
+        <v>65</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="T20" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U20" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="W20" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X20" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB20">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="AG20" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK20" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="AL20">
+        <v>200</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN20">
+        <v>5</v>
+      </c>
+      <c r="AO20">
+        <v>200</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>65</v>
+      </c>
+      <c r="O22">
+        <v>65</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="T22" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U22" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="W22" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X22" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB22">
+        <v>30</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="AG22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK22" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="AL22">
+        <v>200</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN22">
+        <v>10</v>
+      </c>
+      <c r="AO22">
+        <v>200</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
         <v>148</v>
       </c>
-      <c r="I18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M18">
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="N18">
+      <c r="N23">
         <v>65</v>
       </c>
-      <c r="O18">
+      <c r="O23">
         <v>65</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P23" s="12">
         <v>0.01</v>
       </c>
-      <c r="Q18">
+      <c r="Q23">
         <v>10</v>
       </c>
-      <c r="R18">
+      <c r="R23">
         <v>10</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S23" s="12">
         <v>0.03</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T23" s="12">
         <v>0.01</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U23" s="12">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="W23" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="W18" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="X23" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="Y23" t="s">
         <v>112</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="Z23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB18">
-        <v>20</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD18" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="AE18" s="14">
+      <c r="AB23">
+        <v>30</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AE23" s="14">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AF18" s="14">
+      <c r="AF23" s="14">
         <v>0.05</v>
       </c>
-      <c r="AG18" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="21" t="b">
+      <c r="AG23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AI18" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK18" s="19">
+      <c r="AI23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK23" s="19">
         <v>0.85</v>
       </c>
-      <c r="AL18">
+      <c r="AL23">
         <v>200</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM23" t="s">
         <v>116</v>
       </c>
-      <c r="AN18">
-        <v>5</v>
-      </c>
-      <c r="AO18">
+      <c r="AN23">
+        <v>10</v>
+      </c>
+      <c r="AO23">
         <v>200</v>
       </c>
-      <c r="AP18" s="2" t="s">
+      <c r="AP23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AQ18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>65</v>
-      </c>
-      <c r="O19">
-        <v>65</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-      <c r="R19">
-        <v>10</v>
-      </c>
-      <c r="S19" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U19" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V19" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB19">
-        <v>20</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD19" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="AE19" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF19" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG19" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK19" s="19">
-        <v>0.85</v>
-      </c>
-      <c r="AL19">
-        <v>200</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN19">
-        <v>5</v>
-      </c>
-      <c r="AO19">
-        <v>200</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" t="s">
-        <v>186</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>65</v>
-      </c>
-      <c r="O20">
-        <v>65</v>
-      </c>
-      <c r="P20" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-      <c r="R20">
-        <v>10</v>
-      </c>
-      <c r="S20" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T20" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U20" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="W20" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X20" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB20">
-        <v>20</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD20" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="AE20" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF20" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG20" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK20" s="19">
-        <v>0.85</v>
-      </c>
-      <c r="AL20">
-        <v>200</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN20">
-        <v>5</v>
-      </c>
-      <c r="AO20">
-        <v>200</v>
-      </c>
-      <c r="AP20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>65</v>
-      </c>
-      <c r="O22">
-        <v>65</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-      <c r="R22">
-        <v>10</v>
-      </c>
-      <c r="S22" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="T22" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="U22" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="W22" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X22" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB22">
-        <v>30</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD22" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AE22" s="14">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AF22" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="AG22" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK22" s="19">
-        <v>0.85</v>
-      </c>
-      <c r="AL22">
-        <v>200</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN22">
-        <v>10</v>
-      </c>
-      <c r="AO22">
-        <v>200</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ22">
+      <c r="AQ23">
         <v>1</v>
       </c>
     </row>
@@ -3477,79 +3598,79 @@
     <mergeCell ref="V4:X4"/>
   </mergeCells>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14:AP16 AP6:AP8 AP10:AP12 AP18:AP20 AP22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14:AP16 AP6:AP8 AP10:AP12 AP18:AP20 AP22:AP23">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA14:AA16 AA6:AA8 AA10:AA12 AA18:AA20 AA22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA14:AA16 AA6:AA8 AA10:AA12 AA18:AA20 AA22:AA23">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z14:Z16 Z6:Z8 Z10:Z12 Z18:Z20 Z22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z14:Z16 Z6:Z8 Z10:Z12 Z18:Z20 Z22:Z23">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC14:AC16 AC6:AC8 AC10:AC12 AC18:AC20 AC22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC14:AC16 AC6:AC8 AC10:AC12 AC18:AC20 AC22:AC23">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 K10:K12 C14:C16 K6:K8 C10:C12 K14:K16 K18:K20 C18:C20 C22 K22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18:K20 K10:K12 K6:K8 K22:K23 K14:K16 C6:C23">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="N14:N16 N6:N8 N10:N12 N18:N20 N22">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="N14:N16 N6:N8 N10:N12 N18:N20 N22:N23">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="P6:P8 T10:T12 P14:P16 T6:T8 P10:P12 T14:T16 T18:T20 P18:P20 P22 T22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="P6:P8 T10:T12 P14:P16 T6:T8 P10:P12 T14:T16 T18:T20 P18:P20 P22:P23 T22:T23">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="Q14:R16 Q6:R8 Q10:R12 Q18:R20 Q22:R22">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="Q14:R16 Q6:R8 Q10:R12 Q18:R20 Q22:R23">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="U6:U8 S10:S12 U14:U16 W6:W8 S6:S8 W10:W12 U10:U12 W14:W16 S14:S16 U18:U20 S18:S20 W18:W20 U22 W22 S22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="U6:U8 S10:S12 U14:U16 W6:W8 S6:S8 W10:W12 U10:U12 W14:W16 S14:S16 U18:U20 S18:S20 W18:W20 U22:U23 W22:W23 S22:S23">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AB14:AB16 AB6:AB8 AB10:AB12 AB18:AB20 AB22">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AB14:AB16 AB6:AB8 AB10:AB12 AB18:AB20 AB22:AB23">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AE18:AE20 AD6:AE8 AD10:AE12 AE14:AE16 AD14:AD20 AD22:AE22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AE18:AE20 AD6:AE8 AD10:AE12 AE14:AE16 AD14:AD20 AD22:AE23">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AF14:AF16 AF6:AF8 AF10:AF12 AF18:AF20 AF22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AF14:AF16 AF6:AF8 AF10:AF12 AF18:AF20 AF22:AF23">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="X14:X16 X6:X8 X10:X12 X18:X20 X22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="X14:X16 X6:X8 X10:X12 X18:X20 X22:X23">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AN14:AN16 AN6:AN8 AN10:AN12 AN18:AN20 AN22">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AN14:AN16 AN6:AN8 AN10:AN12 AN18:AN20 AN22:AN23">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO14:AO16 AO6:AO8 AO10:AO12 AO18:AO20 AO22">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO14:AO16 AO6:AO8 AO10:AO12 AO18:AO20 AO22:AO23">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ14:AQ16 AQ6:AQ8 AQ10:AQ12 AQ18:AQ20 AQ22">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ14:AQ16 AQ6:AQ8 AQ10:AQ12 AQ18:AQ20 AQ22:AQ23">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="V14:V16 V6:V8 V10:V12 V18:V20 V22"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AI12 AG14:AI20 AG22:AI22">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="V14:V16 V6:V8 V10:V12 V18:V20 V22:V23"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AI12 AG14:AI20 AG22:AI23">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK12 AK14:AK20 AK22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK12 AK14:AK20 AK22:AK23">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ12 AJ14:AJ20 AJ22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ12 AJ14:AJ20 AJ22:AJ23">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3568,13 +3689,13 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$37:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>H6:H12 H14:H20 H22</xm:sqref>
+          <xm:sqref>H6:H12 H14:H20 H22:H23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$44:$A$46</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I12 I14:I20 I22</xm:sqref>
+          <xm:sqref>I6:I12 I14:I20 I22:I23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3584,10 +3705,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D12"/>
+  <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3608,7 +3729,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4" s="12">
         <v>7.4999999999999997E-2</v>
@@ -3622,7 +3743,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B5" s="12">
         <v>5.5E-2</v>
@@ -3636,7 +3757,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B6" s="12">
         <v>7.4999999999999997E-2</v>
@@ -3650,7 +3771,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B7" s="12">
         <v>7.4999999999999997E-2</v>
@@ -3664,7 +3785,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B8" s="12">
         <v>5.5E-2</v>
@@ -3678,7 +3799,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B9" s="12">
         <v>7.4999999999999997E-2</v>
@@ -3692,7 +3813,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B10" s="12">
         <v>7.4999999999999997E-2</v>
@@ -3706,7 +3827,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="12">
         <v>5.5E-2</v>
@@ -3720,7 +3841,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B12" s="12">
         <v>7.4999999999999997E-2</v>
@@ -3732,13 +3853,55 @@
         <v>65</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C12">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C15">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B12">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B15">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
@@ -3773,7 +3936,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="18">
         <v>11</v>
@@ -3787,7 +3950,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B4" s="18">
         <v>11</v>
@@ -3801,7 +3964,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="18">
         <v>11</v>
@@ -3822,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4129,7 +4292,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4147,12 +4310,12 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/IO_Prelim/RunControl_Prelim.xlsx
+++ b/IO_Prelim/RunControl_Prelim.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\Model_Main\IO_Prelim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_Main\IO_Prelim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,16 +838,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1204,14 +1204,14 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875"/>
-    <col min="2" max="2" width="16.6640625"/>
-    <col min="3" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="7.5703125"/>
+    <col min="2" max="2" width="16.7109375"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1262,77 +1262,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1348,35 +1348,35 @@
   <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.44140625"/>
-    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="24.44140625"/>
-    <col min="10" max="11" width="17.44140625"/>
-    <col min="12" max="12" width="16.109375"/>
-    <col min="13" max="14" width="21.44140625"/>
-    <col min="15" max="15" width="24.5546875"/>
+    <col min="1" max="1" width="54.42578125"/>
+    <col min="2" max="2" width="98.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="24.42578125"/>
+    <col min="10" max="11" width="17.42578125"/>
+    <col min="12" max="12" width="16.140625"/>
+    <col min="13" max="14" width="21.42578125"/>
+    <col min="15" max="15" width="24.5703125"/>
     <col min="16" max="16" width="16"/>
-    <col min="17" max="21" width="12.6640625"/>
-    <col min="22" max="22" width="11.109375" customWidth="1"/>
-    <col min="23" max="32" width="12.6640625"/>
+    <col min="17" max="21" width="12.7109375"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="32" width="12.7109375"/>
     <col min="35" max="35" width="9" customWidth="1"/>
     <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="12.6640625"/>
-    <col min="39" max="40" width="27.109375"/>
-    <col min="41" max="41" width="26.88671875"/>
+    <col min="38" max="38" width="12.7109375"/>
+    <col min="39" max="40" width="27.140625"/>
+    <col min="41" max="41" width="26.85546875"/>
     <col min="43" max="43" width="16"/>
-    <col min="44" max="1030" width="8.5546875"/>
+    <col min="44" max="1030" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:43" s="4" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1519,69 +1519,69 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="8" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:43" s="8" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="30" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="29" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="33" t="s">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="27"/>
       <c r="AI4" s="23"/>
-      <c r="AJ4" s="29" t="s">
+      <c r="AJ4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
       <c r="AM4" s="24" t="s">
         <v>70</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="AP4" s="24"/>
       <c r="AQ4" s="24"/>
     </row>
-    <row r="5" spans="1:43" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>185</v>
       </c>
       <c r="C6" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>199</v>
       </c>
       <c r="C7" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>109</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>186</v>
       </c>
       <c r="C8" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="11"/>
       <c r="L9" s="28"/>
@@ -2124,7 +2124,7 @@
       <c r="AJ9" s="2"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>187</v>
       </c>
       <c r="C10" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>189</v>
       </c>
       <c r="C11" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>188</v>
       </c>
       <c r="C12" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -2517,10 +2517,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>193</v>
       </c>
       <c r="C14" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>109</v>
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>195</v>
       </c>
       <c r="C15" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>109</v>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="11"/>
       <c r="L17" s="28"/>
@@ -2924,7 +2924,7 @@
       <c r="AJ17" s="2"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>196</v>
       </c>
       <c r="C18" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>198</v>
       </c>
       <c r="C19" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>109</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>197</v>
       </c>
       <c r="C20" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>109</v>
@@ -3317,10 +3317,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>201</v>
       </c>
       <c r="C22" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>109</v>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -3459,8 +3459,7 @@
         <v>201</v>
       </c>
       <c r="C23" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -3585,17 +3584,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="V4:X4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14:AP16 AP6:AP8 AP10:AP12 AP18:AP20 AP22:AP23">
@@ -3711,9 +3710,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -3918,9 +3917,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -3948,7 +3947,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -3989,17 +3988,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80</v>
       </c>
@@ -4059,30 +4058,30 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625"/>
+    <col min="1" max="1" width="23.42578125"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.44140625"/>
-    <col min="4" max="1025" width="8.5546875"/>
+    <col min="3" max="3" width="85.42578125"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>128</v>
       </c>
@@ -4090,12 +4089,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -4119,12 +4118,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -4148,12 +4147,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -4169,12 +4168,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -4190,12 +4189,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -4211,12 +4210,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -4232,12 +4231,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -4253,12 +4252,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -4290,17 +4289,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -4308,12 +4307,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>184</v>
       </c>
